--- a/public/orders_export.xlsx
+++ b/public/orders_export.xlsx
@@ -15,18 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Shippingaddress</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
   <si>
     <t>Total Price</t>
   </si>
   <si>
-    <t>John Doe</t>
+    <t>000P06</t>
+  </si>
+  <si>
+    <t>Nature Painting</t>
+  </si>
+  <si>
+    <t>2023-03-10 00:00:00</t>
+  </si>
+  <si>
+    <t>000P07</t>
+  </si>
+  <si>
+    <t>Carnaval de Venise Partition</t>
+  </si>
+  <si>
+    <t>000P08</t>
+  </si>
+  <si>
+    <t>000P09</t>
+  </si>
+  <si>
+    <t>000P010</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Average Quantity</t>
   </si>
 </sst>
 </file>
@@ -366,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,7 +413,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,59 +423,120 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2"/>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>100.0</v>
       </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2:G7)</f>
+        <v>500</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3"/>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(F2:F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="C4"/>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>100.0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5"/>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>100.0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>10</v>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="C6"/>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>100.0</v>
       </c>
     </row>
